--- a/rayleighk3rm.xlsx
+++ b/rayleighk3rm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">n</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">sigma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max.iter</t>
   </si>
 </sst>
 </file>
@@ -440,6 +443,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +496,9 @@
       <c r="P2" t="n">
         <v>22.0107266272965</v>
       </c>
+      <c r="Q2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,6 +549,9 @@
       <c r="P3" t="n">
         <v>20.0765250339217</v>
       </c>
+      <c r="Q3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -590,10 +602,13 @@
       <c r="P4" t="n">
         <v>19.4221636530913</v>
       </c>
+      <c r="Q4" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -602,48 +617,51 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-37864.1015608764</v>
+        <v>-3723.63220380951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5119</v>
+        <v>0.554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3622</v>
+        <v>0.363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1259</v>
+        <v>0.083</v>
       </c>
       <c r="H5" t="n">
-        <v>2.73877089385522</v>
+        <v>3.20582042981637</v>
       </c>
       <c r="I5" t="n">
-        <v>13.9420437190962</v>
+        <v>15.2804885983529</v>
       </c>
       <c r="J5" t="n">
-        <v>29.8594912008534</v>
+        <v>33.4284150186419</v>
       </c>
       <c r="K5" t="n">
-        <v>0.308068222813523</v>
+        <v>0.307020162413542</v>
       </c>
       <c r="L5" t="n">
-        <v>0.503586610769212</v>
+        <v>0.558467461006563</v>
       </c>
       <c r="M5" t="n">
-        <v>0.188345166417266</v>
+        <v>0.134512376579895</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0097644321418</v>
+        <v>1.02383226593373</v>
       </c>
       <c r="O5" t="n">
-        <v>11.4423456561834</v>
+        <v>11.6938921749275</v>
       </c>
       <c r="P5" t="n">
-        <v>22.0107266272965</v>
+        <v>24.342052249605</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -652,93 +670,99 @@
         <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>-38345.2715772127</v>
+        <v>-3783.33273701994</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5119</v>
+        <v>0.554</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3622</v>
+        <v>0.363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1259</v>
+        <v>0.083</v>
       </c>
       <c r="H6" t="n">
-        <v>2.73877089385522</v>
+        <v>3.20582042981637</v>
       </c>
       <c r="I6" t="n">
-        <v>13.9420437190962</v>
+        <v>15.2804885983529</v>
       </c>
       <c r="J6" t="n">
-        <v>29.8594912008534</v>
+        <v>33.4284150186419</v>
       </c>
       <c r="K6" t="n">
-        <v>0.306038466623839</v>
+        <v>0.305532874951619</v>
       </c>
       <c r="L6" t="n">
-        <v>0.412662635339095</v>
+        <v>0.498627879959518</v>
       </c>
       <c r="M6" t="n">
-        <v>0.281298898037066</v>
+        <v>0.195839245088863</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00338790418204</v>
+        <v>1.01922527079291</v>
       </c>
       <c r="O6" t="n">
-        <v>10.3030056584896</v>
+        <v>10.9517504096574</v>
       </c>
       <c r="P6" t="n">
-        <v>20.0765250339217</v>
+        <v>22.1716157163332</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D7" t="n">
-        <v>-38431.6119532</v>
+        <v>-3797.12816411144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5119</v>
+        <v>0.554</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3622</v>
+        <v>0.363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1259</v>
+        <v>0.083</v>
       </c>
       <c r="H7" t="n">
-        <v>2.73877089385522</v>
+        <v>3.20582042981637</v>
       </c>
       <c r="I7" t="n">
-        <v>13.9420437190962</v>
+        <v>15.2804885983529</v>
       </c>
       <c r="J7" t="n">
-        <v>29.8594912008534</v>
+        <v>33.4284150186419</v>
       </c>
       <c r="K7" t="n">
-        <v>0.305311313878511</v>
+        <v>0.305162624409786</v>
       </c>
       <c r="L7" t="n">
-        <v>0.373781481702229</v>
+        <v>0.480875852055303</v>
       </c>
       <c r="M7" t="n">
-        <v>0.32090720441926</v>
+        <v>0.213961523534911</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001183916139</v>
+        <v>1.01810590519949</v>
       </c>
       <c r="O7" t="n">
-        <v>9.83250719579007</v>
+        <v>10.7462622033553</v>
       </c>
       <c r="P7" t="n">
-        <v>19.4221636530913</v>
+        <v>21.6776718076912</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
